--- a/Midjourney_Prompts_Updated.xlsx
+++ b/Midjourney_Prompts_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DnDBattleBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21388D8C-A75E-42CF-8FC6-8F1A78F34654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9613422E-98D9-4A95-ADB8-13203BAC1578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{08EACEE6-63B9-4DBD-B364-818C2E82C432}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{08EACEE6-63B9-4DBD-B364-818C2E82C432}"/>
   </bookViews>
   <sheets>
     <sheet name="Midjourney_Prompts_Updated" sheetId="1" r:id="rId1"/>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19137F37-7180-4BE2-A29A-4C14AC671DCD}">
   <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3407,7 +3407,7 @@
       <c r="C97" t="s">
         <v>103</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       <c r="C98" t="s">
         <v>103</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       <c r="C99" t="s">
         <v>103</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       <c r="C100" t="s">
         <v>103</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       <c r="C101" t="s">
         <v>63</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       <c r="C102" t="s">
         <v>63</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       <c r="C103" t="s">
         <v>63</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
       <c r="C104" t="s">
         <v>103</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       <c r="C105" t="s">
         <v>36</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       <c r="C107" t="s">
         <v>94</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="C108" t="s">
         <v>63</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       <c r="C109" t="s">
         <v>63</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       <c r="C110" t="s">
         <v>63</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
       <c r="C111" t="s">
         <v>63</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       <c r="C112" t="s">
         <v>63</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="1" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       <c r="C113" t="s">
         <v>63</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       <c r="C114" t="s">
         <v>63</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       <c r="C115" t="s">
         <v>63</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="1" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       <c r="C116" t="s">
         <v>63</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       <c r="C117" t="s">
         <v>63</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="1" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       <c r="C118" t="s">
         <v>94</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="1" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       <c r="C119" t="s">
         <v>5</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       <c r="C120" t="s">
         <v>5</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       <c r="C121" t="s">
         <v>63</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       <c r="C123" t="s">
         <v>36</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       <c r="C124" t="s">
         <v>63</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       <c r="C125" t="s">
         <v>63</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       <c r="C126" t="s">
         <v>63</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="C127" t="s">
         <v>63</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       <c r="C128" t="s">
         <v>63</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       <c r="C129" t="s">
         <v>63</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       <c r="C130" t="s">
         <v>63</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="1" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       <c r="C132" t="s">
         <v>103</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       <c r="C133" t="s">
         <v>63</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="1" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       <c r="C134" t="s">
         <v>63</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="1" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       <c r="C135" t="s">
         <v>63</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       <c r="C136" t="s">
         <v>63</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="1" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       <c r="C137" t="s">
         <v>63</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="1" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       <c r="C138" t="s">
         <v>63</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       <c r="C139" t="s">
         <v>63</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="1" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       <c r="C140" t="s">
         <v>63</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="1" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       <c r="C141" t="s">
         <v>5</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="1" t="s">
         <v>290</v>
       </c>
     </row>
